--- a/Ethekwini WS-7761.xlsx
+++ b/Ethekwini WS-7761.xlsx
@@ -5,23 +5,24 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acucommza-my.sharepoint.com/personal/reece_acucomm_co_za/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_AE9F75051177CFE83ED9252B828006F60107FD93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76C3A8C-7B04-4488-956C-47C50D2812C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F82814-1B4D-40D5-84A3-F6EF414CF0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="23295" yWindow="2775" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Date of Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Installations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="101">
   <si>
     <t>Task Name</t>
   </si>
@@ -309,6 +310,21 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Contrator</t>
+  </si>
+  <si>
+    <t>Deezlo</t>
+  </si>
+  <si>
+    <t>Count of installations</t>
+  </si>
+  <si>
+    <t>I.P.E</t>
+  </si>
+  <si>
+    <t>Nimba</t>
   </si>
 </sst>
 </file>
@@ -393,6 +409,17 @@
     <tableColumn id="2" xr3:uid="{70C2A858-BE49-443C-8CD4-D6B59E87D40D}" name="Bucket Name"/>
     <tableColumn id="3" xr3:uid="{4FF807BA-D4DA-47F7-85F8-ACB3D1454DD3}" name="Progress"/>
     <tableColumn id="4" xr3:uid="{09B0231C-9990-4CA7-A131-BDE3C71D5430}" name="Priority"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{309F6489-44B1-4930-8283-16E0B79EC7BD}" name="Table2" displayName="Table2" ref="A2:B5" totalsRowShown="0">
+  <autoFilter ref="A2:B5" xr:uid="{309F6489-44B1-4930-8283-16E0B79EC7BD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{86169669-0011-4114-ADA9-5702C91088D4}" name="Contrator"/>
+    <tableColumn id="2" xr3:uid="{A147BC7C-7006-4297-B886-5E7F36EF28D5}" name="Count of installations"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1770,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6277C8F0-F6D0-4349-80A8-ADE6C2361C19}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1792,4 +1819,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B39589-6050-4C3E-9EF5-BB1269959885}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>